--- a/Industrials/Symbiotic.xlsx
+++ b/Industrials/Symbiotic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A33205-B315-FF40-9AEE-B2953547CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFD332-018E-9F46-99FB-AEE3204D875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1763,10 +1763,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1786,7 +1788,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1799,6 +1801,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1927,35 +1931,35 @@
     <v>64.14</v>
     <v>10.210100000000001</v>
     <v>-0.186</v>
-    <v>3.85</v>
-    <v>7.2805999999999996E-2</v>
-    <v>-0.33</v>
-    <v>-5.8170000000000001E-3</v>
+    <v>2.2799999999999998</v>
+    <v>4.7451E-2</v>
+    <v>0.47</v>
+    <v>9.3379999999999991E-3</v>
     <v>USD</v>
-    <v>Symbotic Inc. is focused on artificial intelligence (AI)-enabled robotics automation technology. The Company is engaged in developing, commercializing, and deploying advanced, end-to-end technology solutions that improve supply chain operations. The Company’s platform accelerates the movement of goods through the supply chain, improves stock keeping unit (SKU) agility, and fulfills orders. The platform is composed of atomizing robotics, a buffering structure, autonomous mobile robots that handle product, robotic palletizing cells, and software that coordinates and optimizes the movements of all these systems to maximize the throughput of goods while reducing cost of the system. The Company’s platform is enhanced by its AI powered autonomous hardware and system software. It automates the processing of pallets and cases in large warehouses or distribution centers for retail companies. It serves industries, such as retail, food and beverage, groceries, third-party logistics and others.</v>
+    <v>Symbotic Inc. is focused on artificial intelligence (AI)-enabled robotics automation technology for the supply chain. The Company is engaged in developing, commercializing, and deploying end-to-end technology solutions that improve supply chain operations. It automates the processing of pallets and cases in warehouses or distribution centers for some of the retail companies in the world. Its platform is based on an approach to connecting producers of goods to end users in a way that resolves the mismatches of quantity, timing and location that arise between the two, while reducing costs. It utilizes fully autonomous robots, collectively controlled by its AI. With its A.I.-powered robotic technology platform, it is changing the way consumer goods move through the supply chain. It serves various industries, including retail grocery, retail general merchandise, food wholesale, footwear and apparel, consumer packaged goods and food and beverage.</v>
     <v>1120</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Research Drive, WILMINGTON, MA, 01887 US</v>
-    <v>57.41</v>
+    <v>51.63</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45262.040452198438</v>
+    <v>45268.875007928124</v>
     <v>0</v>
-    <v>50.52</v>
-    <v>31604380000</v>
+    <v>47.24</v>
+    <v>28038923528</v>
     <v>SYMBOTIC INC.</v>
     <v>SYMBOTIC INC.</v>
-    <v>52.37</v>
-    <v>52.88</v>
-    <v>56.73</v>
-    <v>56.4</v>
+    <v>47.87</v>
+    <v>48.05</v>
+    <v>50.33</v>
+    <v>50.8</v>
     <v>557101600</v>
     <v>SYM</v>
     <v>SYMBOTIC INC. (XNAS:SYM)</v>
-    <v>1730725</v>
-    <v>1601354</v>
+    <v>970015</v>
+    <v>1691321</v>
     <v>2022</v>
   </rv>
   <rv s="2">
@@ -2563,9 +2567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D41" sqref="D41"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8800,7 +8804,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8853,7 +8857,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>31604380000</v>
+        <v>28038923528</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>192</v>
@@ -8881,7 +8885,7 @@
       </c>
       <c r="I3" s="102">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>19843526471.440899</v>
+        <v>19709193163.492912</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>196</v>
@@ -8933,14 +8937,14 @@
       </c>
       <c r="I4" s="103">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15694732480.824057</v>
+        <v>15577582785.755531</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="104" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.2805999999999996E-2</v>
+        <v>4.7451E-2</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>204</v>
@@ -8985,14 +8989,14 @@
       </c>
       <c r="I5" s="103">
         <f>I4+G5-G6</f>
-        <v>16205635370.824057</v>
+        <v>16088485675.755531</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>56.73</v>
+        <v>50.33</v>
       </c>
       <c r="L5" s="47" t="s">
         <v>211</v>
@@ -9012,7 +9016,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
         <f>O20/F10</f>
-        <v>18.080308924485127</v>
+        <v>16.040574100686499</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>213</v>
@@ -9040,14 +9044,14 @@
       </c>
       <c r="I6" s="106">
         <f>N25</f>
-        <v>9.7625699976973568E-2</v>
+        <v>9.8120699972103556E-2</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="109">
         <f>I5/G4</f>
-        <v>24.493085333786752</v>
+        <v>24.316026094054234</v>
       </c>
       <c r="L6" s="51" t="s">
         <v>217</v>
@@ -9067,14 +9071,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <f>O20/F12</f>
-        <v>244.99519379844961</v>
+        <v>217.35599634108527</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="100">
         <f>F15/A3</f>
-        <v>1.1973023992244113E-2</v>
+        <v>1.3495525233774588E-2</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>220</v>
@@ -9101,7 +9105,7 @@
       </c>
       <c r="K7" s="110">
         <f>K6/K5-1</f>
-        <v>-0.56825162464680501</v>
+        <v>-0.51686814833987216</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>223</v>
@@ -9428,7 +9432,7 @@
       </c>
       <c r="O14" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
@@ -9580,7 +9584,7 @@
       </c>
       <c r="O17" s="86">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -9663,7 +9667,7 @@
       </c>
       <c r="O20" s="92">
         <f>A3</f>
-        <v>31604380000</v>
+        <v>28038923528</v>
       </c>
       <c r="P20" s="40"/>
       <c r="Q20" s="40"/>
@@ -9693,7 +9697,7 @@
       </c>
       <c r="O21" s="92">
         <f>O19+O20</f>
-        <v>31604380110</v>
+        <v>28038923638</v>
       </c>
       <c r="P21" s="40"/>
       <c r="Q21" s="40"/>
@@ -9702,7 +9706,7 @@
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="111" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
-        <v>Symbotic Inc. is focused on artificial intelligence (AI)-enabled robotics automation technology. The Company is engaged in developing, commercializing, and deploying advanced, end-to-end technology solutions that improve supply chain operations. The Company’s platform accelerates the movement of goods through the supply chain, improves stock keeping unit (SKU) agility, and fulfills orders. The platform is composed of atomizing robotics, a buffering structure, autonomous mobile robots that handle product, robotic palletizing cells, and software that coordinates and optimizes the movements of all these systems to maximize the throughput of goods while reducing cost of the system. The Company’s platform is enhanced by its AI powered autonomous hardware and system software. It automates the processing of pallets and cases in large warehouses or distribution centers for retail companies. It serves industries, such as retail, food and beverage, groceries, third-party logistics and others.</v>
+        <v>Symbotic Inc. is focused on artificial intelligence (AI)-enabled robotics automation technology for the supply chain. The Company is engaged in developing, commercializing, and deploying end-to-end technology solutions that improve supply chain operations. It automates the processing of pallets and cases in warehouses or distribution centers for some of the retail companies in the world. Its platform is based on an approach to connecting producers of goods to end users in a way that resolves the mismatches of quantity, timing and location that arise between the two, while reducing costs. It utilizes fully autonomous robots, collectively controlled by its AI. With its A.I.-powered robotic technology platform, it is changing the way consumer goods move through the supply chain. It serves various industries, including retail grocery, retail general merchandise, food wholesale, footwear and apparel, consumer packaged goods and food and beverage.</v>
       </c>
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
@@ -9721,7 +9725,7 @@
       </c>
       <c r="O22" s="94">
         <f>(O19/O21)</f>
-        <v>3.4805302181894306E-9</v>
+        <v>3.9231177851250155E-9</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>
@@ -9746,7 +9750,7 @@
       </c>
       <c r="O23" s="95">
         <f>O20/O21</f>
-        <v>0.9999999965194698</v>
+        <v>0.99999999607688217</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -9790,7 +9794,7 @@
       <c r="M25" s="59"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7625699976973568E-2</v>
+        <v>9.8120699972103556E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="40"/>
